--- a/medicine/Psychotrope/Ravageurs_du_caféier/Ravageurs_du_caféier.xlsx
+++ b/medicine/Psychotrope/Ravageurs_du_caféier/Ravageurs_du_caféier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ravageurs_du_caf%C3%A9ier</t>
+          <t>Ravageurs_du_caféier</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les ravageurs du caféier (Coffea spp;) sont très nombreux et comptent notamment de nombreuses espèces d'insectes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ravageurs_du_caf%C3%A9ier</t>
+          <t>Ravageurs_du_caféier</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,68 +525,245 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Coléoptères
-Araecerus fasciculatus (bruche des grains de café)
+          <t>Coléoptères</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Araecerus fasciculatus (bruche des grains de café)
 Xylosandrus compactus (scolyte noir du caféier)
 Xylosandrus morigerus (scolyte brun du caféier)
 Asynonychus godmani
 Hypothenemus hampei (scolyte des cerises de café)
 Oligonychus coffeae (acarien rouge du caféier)
 Systates pollinosus
-Zeuzera coffeae (ver rouge du caféier)
-Diptères
-Ceratitis capitata (mouche méditerranéenne des fruits)
+Zeuzera coffeae (ver rouge du caféier)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ravageurs_du_caféier</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ravageurs_du_caf%C3%A9ier</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Diptères</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ceratitis capitata (mouche méditerranéenne des fruits)
 Trirhithrum coffeae (mouche des fruits du caféier)
-Melanagromyza coffeae (mouche mineuse)
-Hémiptères
-Coccus viridis (cochenille verte du caféier)
+Melanagromyza coffeae (mouche mineuse)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ravageurs_du_caféier</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ravageurs_du_caf%C3%A9ier</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Hémiptères</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Coccus viridis (cochenille verte du caféier)
 Pulvinaria psidii (cochenille du goyavier)
 Saissetia coffeae (cochenille brune du caféier)
 Dysmicoccus brevipes (cochenille farineuse de l'ananas)
 Geococus coffeae (cochenille du caféier)
 Melormenis basalis
 Toxoptera aurantii (puceron noir de l'oranger, puceron du caféier)
-Antestiopsis orbitalis (punaise du caféier, punaise bigarrée)
-Hyménoptères
-Anoplolepis longipes (fourmi - Formicidae)
+Antestiopsis orbitalis (punaise du caféier, punaise bigarrée)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ravageurs_du_caféier</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ravageurs_du_caf%C3%A9ier</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Hyménoptères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Anoplolepis longipes (fourmi - Formicidae)
 Pheidole megacephala (fourmi mégacéphale - Formicidae)
-Macromischoides aculeatus (fourmi - Formicidae)
-Lépidoptères
-Auximobasis coffeaella
+Macromischoides aculeatus (fourmi - Formicidae)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Ravageurs_du_caféier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ravageurs_du_caf%C3%A9ier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Lépidoptères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Auximobasis coffeaella
 Leucoptera caffeina (chenille mineuse du caféier)
 Perileucoptera coffeella (mineuse des feuilles du caféier)
-Prophantis Smaragdina (pyrale du café)
-Thysanoptères
-Heliothrips haemorrhoidalis (thrips des serres)
+Prophantis Smaragdina (pyrale du café)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Ravageurs_du_caféier</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ravageurs_du_caf%C3%A9ier</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Insectes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Thysanoptères</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Heliothrips haemorrhoidalis (thrips des serres)
 Diarthropthrips coffeae (thrips du caféier)</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Ravageurs_du_caf%C3%A9ier</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Ravageurs_du_caféier</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ravageurs_du_caf%C3%A9ier</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Arachnides</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Oligonychus coffeae (acarien rouge du caféier)
 Oligonychus ilicis
@@ -584,31 +773,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ravageurs_du_caf%C3%A9ier</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Ravageurs_du_caféier</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Ravageurs_du_caf%C3%A9ier</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Nématodes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Pratylenchus coffeae (nématode des racines)
 Meloidogyne konaensis</t>
